--- a/biology/Botanique/Gremmeniella_abietina/Gremmeniella_abietina.xlsx
+++ b/biology/Botanique/Gremmeniella_abietina/Gremmeniella_abietina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chancre des résineux
 Gremmeniella abietina, le Chancre des résineux, est une espèce de champignons de la famille des Helotiaceae.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (10 septembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (10 septembre 2023) :
 Gremmeniella abietina var. abietina (Lagerb.) M.Morelet, 1969
 Gremmeniella abietina var. balsamea Petrini, L.E.Petrini, Lafl. &amp; Ouell., 1989</t>
         </is>
@@ -544,12 +558,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gremmeniella abietina (Lagerb.) M.Morelet, 1969[1].
-L'espèce a été initialement classée dans le genre Crumenula sous le basionyme Crumenula abietina Lagerb., 1913[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : chancre des résineux[2], chancre gremmenielléen[2], chancre scléroderrien[2], dépérissement des résineux[2], dessèchement des rameaux de pin[2].
-Gremmeniella abietina a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gremmeniella abietina (Lagerb.) M.Morelet, 1969.
+L'espèce a été initialement classée dans le genre Crumenula sous le basionyme Crumenula abietina Lagerb., 1913.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : chancre des résineux, chancre gremmenielléen, chancre scléroderrien, dépérissement des résineux, dessèchement des rameaux de pin.
+Gremmeniella abietina a pour synonymes :
 Ascocalyx abietina (Lagerb.) Schläpf.-Bernh., 1969
 Brunchorstia destruens Erikss., 1891
 Crumenula abietina Lagerb., 1913
